--- a/data/output/FV2404_FV2310/UTILMD/55178.xlsx
+++ b/data/output/FV2404_FV2310/UTILMD/55178.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3659" uniqueCount="334">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3680" uniqueCount="334">
+  <si>
+    <t>Segmentname_FV2310</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2310</t>
+  </si>
+  <si>
+    <t>Segment_FV2310</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2310</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2310</t>
+  </si>
+  <si>
+    <t>Code_FV2310</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2310</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2310</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1167,6 +1167,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U161" totalsRowShown="0">
+  <autoFilter ref="A1:U161"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2310"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2310"/>
+    <tableColumn id="3" name="Segment_FV2310"/>
+    <tableColumn id="4" name="Datenelement_FV2310"/>
+    <tableColumn id="5" name="Segment ID_FV2310"/>
+    <tableColumn id="6" name="Code_FV2310"/>
+    <tableColumn id="7" name="Qualifier_FV2310"/>
+    <tableColumn id="8" name="Beschreibung_FV2310"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2310"/>
+    <tableColumn id="10" name="Bedingung_FV2310"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2404"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="14" name="Segment_FV2404"/>
+    <tableColumn id="15" name="Datenelement_FV2404"/>
+    <tableColumn id="16" name="Segment ID_FV2404"/>
+    <tableColumn id="17" name="Code_FV2404"/>
+    <tableColumn id="18" name="Qualifier_FV2404"/>
+    <tableColumn id="19" name="Beschreibung_FV2404"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="21" name="Bedingung_FV2404"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1456,7 +1486,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -9186,5 +9219,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2404_FV2310/UTILMD/55178.xlsx
+++ b/data/output/FV2404_FV2310/UTILMD/55178.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4460" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4444" uniqueCount="490">
   <si>
     <t>#</t>
   </si>
@@ -8293,9 +8293,7 @@
         <v>213</v>
       </c>
       <c r="K121" s="2"/>
-      <c r="L121" s="4" t="s">
-        <v>280</v>
-      </c>
+      <c r="L121" s="7"/>
       <c r="M121" s="2" t="s">
         <v>44</v>
       </c>
@@ -8349,9 +8347,7 @@
         <v>213</v>
       </c>
       <c r="K122" s="2"/>
-      <c r="L122" s="4" t="s">
-        <v>280</v>
-      </c>
+      <c r="L122" s="7"/>
       <c r="M122" s="2" t="s">
         <v>44</v>
       </c>
@@ -8405,9 +8401,7 @@
         <v>213</v>
       </c>
       <c r="K123" s="2"/>
-      <c r="L123" s="4" t="s">
-        <v>280</v>
-      </c>
+      <c r="L123" s="7"/>
       <c r="M123" s="2" t="s">
         <v>44</v>
       </c>
@@ -8847,9 +8841,7 @@
         <v>213</v>
       </c>
       <c r="K131" s="2"/>
-      <c r="L131" s="4" t="s">
-        <v>280</v>
-      </c>
+      <c r="L131" s="7"/>
       <c r="M131" s="2" t="s">
         <v>46</v>
       </c>
@@ -9100,46 +9092,44 @@
       </c>
     </row>
     <row r="136" spans="1:22">
-      <c r="A136" s="2" t="s">
+      <c r="A136" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="B136" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C136" s="2" t="s">
+      <c r="C136" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D136" s="2"/>
-      <c r="E136" s="2"/>
-      <c r="F136" s="2"/>
-      <c r="G136" s="2"/>
-      <c r="H136" s="2"/>
-      <c r="I136" s="2"/>
-      <c r="J136" s="2" t="s">
+      <c r="D136" s="5"/>
+      <c r="E136" s="5"/>
+      <c r="F136" s="5"/>
+      <c r="G136" s="5"/>
+      <c r="H136" s="5"/>
+      <c r="I136" s="5"/>
+      <c r="J136" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="K136" s="2" t="s">
+      <c r="K136" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="L136" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="M136" s="2" t="s">
+      <c r="L136" s="7"/>
+      <c r="M136" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="N136" s="2" t="s">
+      <c r="N136" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="O136" s="2"/>
-      <c r="P136" s="2"/>
-      <c r="Q136" s="2"/>
-      <c r="R136" s="2"/>
-      <c r="S136" s="2"/>
-      <c r="T136" s="2"/>
-      <c r="U136" s="2" t="s">
+      <c r="O136" s="5"/>
+      <c r="P136" s="5"/>
+      <c r="Q136" s="5"/>
+      <c r="R136" s="5"/>
+      <c r="S136" s="5"/>
+      <c r="T136" s="5"/>
+      <c r="U136" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="V136" s="2" t="s">
+      <c r="V136" s="5" t="s">
         <v>273</v>
       </c>
     </row>
@@ -9580,46 +9570,44 @@
       </c>
     </row>
     <row r="145" spans="1:22">
-      <c r="A145" s="2" t="s">
+      <c r="A145" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="B145" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C145" s="2" t="s">
+      <c r="C145" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D145" s="2"/>
-      <c r="E145" s="2"/>
-      <c r="F145" s="2"/>
-      <c r="G145" s="2"/>
-      <c r="H145" s="2"/>
-      <c r="I145" s="2"/>
-      <c r="J145" s="2" t="s">
+      <c r="D145" s="5"/>
+      <c r="E145" s="5"/>
+      <c r="F145" s="5"/>
+      <c r="G145" s="5"/>
+      <c r="H145" s="5"/>
+      <c r="I145" s="5"/>
+      <c r="J145" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="K145" s="2" t="s">
+      <c r="K145" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="L145" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="M145" s="2" t="s">
+      <c r="L145" s="7"/>
+      <c r="M145" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="N145" s="2" t="s">
+      <c r="N145" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="O145" s="2"/>
-      <c r="P145" s="2"/>
-      <c r="Q145" s="2"/>
-      <c r="R145" s="2"/>
-      <c r="S145" s="2"/>
-      <c r="T145" s="2"/>
-      <c r="U145" s="2" t="s">
+      <c r="O145" s="5"/>
+      <c r="P145" s="5"/>
+      <c r="Q145" s="5"/>
+      <c r="R145" s="5"/>
+      <c r="S145" s="5"/>
+      <c r="T145" s="5"/>
+      <c r="U145" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="V145" s="2" t="s">
+      <c r="V145" s="5" t="s">
         <v>276</v>
       </c>
     </row>
@@ -10060,44 +10048,42 @@
       </c>
     </row>
     <row r="154" spans="1:22">
-      <c r="A154" s="2" t="s">
+      <c r="A154" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="B154" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C154" s="2" t="s">
+      <c r="C154" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D154" s="2"/>
-      <c r="E154" s="2"/>
-      <c r="F154" s="2"/>
-      <c r="G154" s="2"/>
-      <c r="H154" s="2"/>
-      <c r="I154" s="2"/>
-      <c r="J154" s="2" t="s">
+      <c r="D154" s="5"/>
+      <c r="E154" s="5"/>
+      <c r="F154" s="5"/>
+      <c r="G154" s="5"/>
+      <c r="H154" s="5"/>
+      <c r="I154" s="5"/>
+      <c r="J154" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="K154" s="2"/>
-      <c r="L154" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="M154" s="2" t="s">
+      <c r="K154" s="5"/>
+      <c r="L154" s="7"/>
+      <c r="M154" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="N154" s="2" t="s">
+      <c r="N154" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="O154" s="2"/>
-      <c r="P154" s="2"/>
-      <c r="Q154" s="2"/>
-      <c r="R154" s="2"/>
-      <c r="S154" s="2"/>
-      <c r="T154" s="2"/>
-      <c r="U154" s="2" t="s">
+      <c r="O154" s="5"/>
+      <c r="P154" s="5"/>
+      <c r="Q154" s="5"/>
+      <c r="R154" s="5"/>
+      <c r="S154" s="5"/>
+      <c r="T154" s="5"/>
+      <c r="U154" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="V154" s="2"/>
+      <c r="V154" s="5"/>
     </row>
     <row r="155" spans="1:22">
       <c r="A155" s="2" t="s">
@@ -10291,9 +10277,7 @@
       <c r="K158" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="L158" s="4" t="s">
-        <v>280</v>
-      </c>
+      <c r="L158" s="7"/>
       <c r="M158" s="2" t="s">
         <v>54</v>
       </c>
